--- a/Her_mutants.xlsx
+++ b/Her_mutants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/FBBEE713362DF8AC/EPFL/MA1/Scientific project design/heating_zebrafish/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3426" documentId="7_{08110E90-EEBB-7A45-9D09-FB8F7AEE7293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2785D830-4814-48C5-A1D3-832EBF58BACF}"/>
+  <xr:revisionPtr revIDLastSave="3610" documentId="7_{08110E90-EEBB-7A45-9D09-FB8F7AEE7293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{087AD9AD-E7DD-4B42-803D-EA03A0AEBC3D}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" firstSheet="12" activeTab="20" xr2:uid="{69632F40-4D28-4C5D-BDDB-431542D12187}"/>
+    <workbookView xWindow="-89" yWindow="0" windowWidth="10811" windowHeight="11332" firstSheet="11" activeTab="13" xr2:uid="{69632F40-4D28-4C5D-BDDB-431542D12187}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="421">
   <si>
     <t>Line</t>
   </si>
@@ -1243,7 +1243,7 @@
     <t>1_1_C12_23</t>
   </si>
   <si>
-    <t>1_2_C1_21</t>
+    <t>1_2_C1_11</t>
   </si>
   <si>
     <t>1_2_C2_12</t>
@@ -1291,9 +1291,6 @@
     <t>1_2_E4_26</t>
   </si>
   <si>
-    <t>1_2_E5_27</t>
-  </si>
-  <si>
     <t>1_2_E6_28</t>
   </si>
   <si>
@@ -1306,20 +1303,29 @@
     <t>1_2_E9_31</t>
   </si>
   <si>
-    <t>1_2_E10_32</t>
-  </si>
-  <si>
-    <t>1_2_E11_33</t>
-  </si>
-  <si>
-    <t>1_2_E12_34</t>
+    <t>1_2_F2_1_2</t>
+  </si>
+  <si>
+    <t>1_2_F3_2_2</t>
+  </si>
+  <si>
+    <t>1_2_F4_3_2</t>
+  </si>
+  <si>
+    <t>1_2_F5_4_2</t>
+  </si>
+  <si>
+    <t>1_2_F6_5_2</t>
+  </si>
+  <si>
+    <t>1_2_F7_6_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1380,6 +1386,19 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1595,7 +1614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1638,6 +1657,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1692,10 +1720,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2233,7 +2257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6CF1D9-DF29-0043-BB87-8CC8FD234706}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="81" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -2327,15 +2351,15 @@
         <v>14</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="43"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="50"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -2749,103 +2773,103 @@
       <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:17" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="1:17" ht="28.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
       <c r="J19" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K19" s="44" t="s">
+      <c r="K19" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="45"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="52"/>
     </row>
     <row r="20" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
       <c r="J20" s="12" t="s">
         <v>78</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="29"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="36"/>
     </row>
     <row r="21" spans="1:17" ht="46" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
       <c r="J21" s="12" t="s">
         <v>82</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="29"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="36"/>
     </row>
     <row r="22" spans="1:17" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
       <c r="J22" s="12" t="s">
         <v>82</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="29"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J23" s="12" t="s">
@@ -2854,14 +2878,14 @@
       <c r="K23" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="28" t="s">
+      <c r="L23" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="29"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="J24" s="12" t="s">
@@ -2870,14 +2894,14 @@
       <c r="K24" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L24" s="28" t="s">
+      <c r="L24" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="29"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J25" s="12" t="s">
@@ -2886,14 +2910,14 @@
       <c r="K25" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="L25" s="28" t="s">
+      <c r="L25" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="29"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="36"/>
     </row>
     <row r="26" spans="1:17" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J26" s="14" t="s">
@@ -2902,14 +2926,14 @@
       <c r="K26" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="L26" s="30" t="s">
+      <c r="L26" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="31"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2937,7 +2961,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7D44F7-68D8-4C34-9CE0-4C72F9AF52D8}">
-  <dimension ref="A1:AH20"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T19" sqref="T19"/>
@@ -3525,19 +3549,19 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" s="46">
+      <c r="M7" s="28">
         <v>2</v>
       </c>
-      <c r="N7" s="47">
-        <v>0</v>
-      </c>
-      <c r="O7" s="47">
+      <c r="N7" s="29">
+        <v>0</v>
+      </c>
+      <c r="O7" s="29">
         <v>3</v>
       </c>
-      <c r="P7" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="48">
+      <c r="P7" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="30">
         <v>1</v>
       </c>
       <c r="R7">
@@ -4225,9 +4249,6 @@
         <f t="shared" si="4"/>
         <v>1.8540496217739157</v>
       </c>
-    </row>
-    <row r="20" spans="34:34" x14ac:dyDescent="0.3">
-      <c r="AH20" s="49"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AB9 B14:AB17 B10:AC13">
@@ -6135,7 +6156,7 @@
   <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6265,13 +6286,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -6320,7 +6341,7 @@
       </c>
       <c r="AC2">
         <f>SUM(B2:AB2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
@@ -6448,10 +6469,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -7075,10 +7096,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -7255,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -7264,7 +7285,7 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -7310,7 +7331,7 @@
       </c>
       <c r="AC13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
@@ -7355,19 +7376,19 @@
       </c>
       <c r="K14" s="6">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M14" s="6">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.25</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" si="1"/>
@@ -7427,7 +7448,7 @@
       </c>
       <c r="AC14" s="6">
         <f t="shared" si="1"/>
-        <v>0.58333333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
@@ -7706,19 +7727,19 @@
       </c>
       <c r="K17">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>0.27638539919628335</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
         <v>0.4330127018922193</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="4"/>
-        <v>0.37267799624996495</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="4"/>
-        <v>0.27638539919628335</v>
-      </c>
       <c r="N17">
         <f t="shared" si="4"/>
-        <v>0.27638539919628335</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <f t="shared" si="4"/>
@@ -7778,7 +7799,7 @@
       </c>
       <c r="AC17">
         <f t="shared" si="4"/>
-        <v>0.95379359518829976</v>
+        <v>0.47140452079103168</v>
       </c>
     </row>
   </sheetData>
@@ -7821,7 +7842,7 @@
   <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8044,13 +8065,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -8125,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -8146,10 +8167,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -8186,7 +8207,7 @@
       </c>
       <c r="AC4">
         <f t="shared" ref="AC4:AC15" si="0">SUM(B4:AB4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
@@ -8329,10 +8350,10 @@
         <v>0</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>2</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -8581,16 +8602,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>2</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -8599,7 +8620,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -8636,7 +8657,7 @@
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
@@ -8671,22 +8692,22 @@
         <v>0</v>
       </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>2</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>3</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
       </c>
       <c r="N10">
         <v>2</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -8726,7 +8747,7 @@
       </c>
       <c r="AC10">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
@@ -8941,19 +8962,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -8996,7 +9017,7 @@
       </c>
       <c r="AC13">
         <f t="shared" ref="AC13" si="1">SUM(B13:AB13)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
@@ -9115,22 +9136,22 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>2</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -9176,7 +9197,7 @@
       </c>
       <c r="AC15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
@@ -9213,44 +9234,44 @@
       </c>
       <c r="I16" s="6">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P16" s="6">
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J16" s="6">
+      <c r="Q16" s="6">
         <f t="shared" si="2"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K16" s="6">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L16" s="6">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="M16" s="6">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="N16" s="6">
-        <f t="shared" si="2"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="O16" s="6">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="P16" s="6">
+      <c r="R16" s="6">
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="Q16" s="6">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="R16" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="S16" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9293,7 +9314,7 @@
       </c>
       <c r="AC16" s="6">
         <f t="shared" si="2"/>
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
@@ -9338,12 +9359,12 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="L17" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="M17" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -9354,7 +9375,7 @@
       </c>
       <c r="O17" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="3"/>
@@ -9410,7 +9431,7 @@
       </c>
       <c r="AC17" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
@@ -9527,7 +9548,7 @@
       </c>
       <c r="AC18" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
@@ -9564,7 +9585,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="5"/>
-        <v>0.37267799624996495</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
@@ -9572,23 +9593,23 @@
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
-        <v>0.7453559924999299</v>
+        <v>0.59511903571190417</v>
       </c>
       <c r="L19">
         <f t="shared" si="5"/>
-        <v>1.0103629710818451</v>
+        <v>0.64009547898905073</v>
       </c>
       <c r="M19">
         <f t="shared" si="5"/>
-        <v>0.6454972243679028</v>
+        <v>0.9574271077563381</v>
       </c>
       <c r="N19">
         <f t="shared" si="5"/>
-        <v>0.64009547898905073</v>
+        <v>0.75920279826202486</v>
       </c>
       <c r="O19">
         <f t="shared" si="5"/>
-        <v>0.47140452079103168</v>
+        <v>0.64009547898905073</v>
       </c>
       <c r="P19">
         <f t="shared" si="5"/>
@@ -9596,11 +9617,11 @@
       </c>
       <c r="Q19">
         <f t="shared" si="5"/>
-        <v>0.59511903571190417</v>
+        <v>0.27638539919628335</v>
       </c>
       <c r="R19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.55277079839256671</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
@@ -9644,7 +9665,7 @@
       </c>
       <c r="AC19">
         <f t="shared" si="5"/>
-        <v>2.7487370837451071</v>
+        <v>3.082207001484488</v>
       </c>
     </row>
   </sheetData>
@@ -9706,8 +9727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142240C9-6966-42E8-B01B-DFB64A981B0D}">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9837,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -9892,7 +9913,7 @@
       </c>
       <c r="AC2">
         <f>SUM(B2:AB2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
@@ -9918,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -9927,28 +9948,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>2</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>2</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -9982,7 +10003,7 @@
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AC16" si="0">SUM(B3:AB3)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
@@ -10020,22 +10041,22 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -10072,7 +10093,7 @@
       </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
@@ -10107,19 +10128,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -10162,7 +10183,7 @@
       </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
@@ -10197,22 +10218,22 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>3</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -10374,22 +10395,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>2</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -10432,7 +10453,7 @@
       </c>
       <c r="AC8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
@@ -10464,22 +10485,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
         <v>2</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -10522,7 +10543,7 @@
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
@@ -10569,7 +10590,7 @@
         <v>2</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -10612,7 +10633,7 @@
       </c>
       <c r="AC10">
         <f t="shared" ref="AC10" si="1">SUM(B10:AB10)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
@@ -10647,10 +10668,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>2</v>
@@ -10662,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -10740,19 +10761,19 @@
         <v>0</v>
       </c>
       <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>2</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>3</v>
       </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -10827,22 +10848,22 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>2</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -10882,7 +10903,7 @@
       </c>
       <c r="AC13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
@@ -10920,16 +10941,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
         <v>2</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -10972,7 +10993,7 @@
       </c>
       <c r="AC14">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
@@ -11010,19 +11031,19 @@
         <v>0</v>
       </c>
       <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>3</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -11185,7 +11206,7 @@
       </c>
       <c r="H17" s="6">
         <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="2"/>
@@ -11193,39 +11214,39 @@
       </c>
       <c r="J17" s="6">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="2"/>
         <v>0.13333333333333333</v>
       </c>
-      <c r="K17" s="6">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
       <c r="L17" s="6">
         <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="M17" s="6">
-        <f t="shared" si="2"/>
-        <v>1.4</v>
-      </c>
       <c r="N17" s="6">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" si="2"/>
-        <v>0.26666666666666666</v>
+        <v>1.1333333333333333</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="R17" s="6">
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
-      </c>
-      <c r="R17" s="6">
-        <f t="shared" si="2"/>
-        <v>0.26666666666666666</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" si="2"/>
@@ -11269,7 +11290,7 @@
       </c>
       <c r="AC17" s="6">
         <f>AVERAGE(AC2:AC16)</f>
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
@@ -11314,7 +11335,7 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="3"/>
@@ -11330,7 +11351,7 @@
       </c>
       <c r="O18" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="3"/>
@@ -11386,7 +11407,7 @@
       </c>
       <c r="AC18" s="1">
         <f>MEDIAN(AC2:AC16)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
@@ -11431,11 +11452,11 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="4"/>
@@ -11447,7 +11468,7 @@
       </c>
       <c r="O19" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="4"/>
@@ -11503,7 +11524,7 @@
       </c>
       <c r="AC19" s="1">
         <f>_xlfn.MODE.SNGL(AC2:AC16)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
@@ -11536,7 +11557,7 @@
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
-        <v>0.24944382578492943</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <f t="shared" si="5"/>
@@ -11544,39 +11565,39 @@
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>0.33993463423951897</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>0.61101009266077866</v>
+        <v>0.33993463423951897</v>
       </c>
       <c r="L20">
         <f t="shared" si="5"/>
-        <v>0.94280904158206336</v>
+        <v>0.78881063774661553</v>
       </c>
       <c r="M20">
         <f t="shared" si="5"/>
-        <v>0.87939373055152792</v>
+        <v>1.0749676997731399</v>
       </c>
       <c r="N20">
         <f t="shared" si="5"/>
-        <v>0.54160256030906406</v>
+        <v>0.67986926847903795</v>
       </c>
       <c r="O20">
         <f t="shared" si="5"/>
-        <v>0.44221663871405331</v>
+        <v>0.95684667296048831</v>
       </c>
       <c r="P20">
         <f t="shared" si="5"/>
-        <v>0.4</v>
+        <v>0.6182412330330469</v>
       </c>
       <c r="Q20">
         <f t="shared" si="5"/>
-        <v>0.69920589878010098</v>
+        <v>0.61101009266077866</v>
       </c>
       <c r="R20">
         <f t="shared" si="5"/>
-        <v>0.57348835113617513</v>
+        <v>0.59628479399994394</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
@@ -11620,7 +11641,7 @@
       </c>
       <c r="AC20">
         <f>_xlfn.STDEV.P(AC2:AC16)</f>
-        <v>1.7048949136725895</v>
+        <v>1.9043809142780932</v>
       </c>
     </row>
   </sheetData>
@@ -13067,7 +13088,7 @@
   <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17082,7 +17103,7 @@
         <v>237</v>
       </c>
       <c r="B13" s="6">
-        <f t="shared" ref="B13:AC13" si="1">AVERAGE(B2:B12)</f>
+        <f t="shared" ref="B13:AB13" si="1">AVERAGE(B2:B12)</f>
         <v>0</v>
       </c>
       <c r="C13" s="6">
@@ -17586,7 +17607,7 @@
   <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18706,13 +18727,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -18761,7 +18782,7 @@
       </c>
       <c r="AC13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
@@ -18806,15 +18827,15 @@
       </c>
       <c r="K14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" si="1"/>
@@ -18878,7 +18899,7 @@
       </c>
       <c r="AC14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
@@ -19157,15 +19178,15 @@
       </c>
       <c r="K17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.27638539919628335</v>
       </c>
       <c r="L17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.27638539919628335</v>
       </c>
       <c r="M17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.27638539919628335</v>
       </c>
       <c r="N17">
         <f t="shared" si="4"/>
@@ -19229,7 +19250,7 @@
       </c>
       <c r="AC17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.82915619758884995</v>
       </c>
     </row>
   </sheetData>
@@ -21254,7 +21275,7 @@
   <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD17"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21999,25 +22020,25 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -22069,7 +22090,7 @@
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
@@ -22454,31 +22475,31 @@
       </c>
       <c r="F14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M14" s="6">
         <f t="shared" si="1"/>
@@ -22546,7 +22567,7 @@
       </c>
       <c r="AC14" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
@@ -22805,31 +22826,31 @@
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.27638539919628335</v>
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.55277079839256671</v>
       </c>
       <c r="H17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.55277079839256671</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.55277079839256671</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.55277079839256671</v>
       </c>
       <c r="K17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.55277079839256671</v>
       </c>
       <c r="L17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.27638539919628335</v>
       </c>
       <c r="M17">
         <f t="shared" si="4"/>
@@ -22897,7 +22918,7 @@
       </c>
       <c r="AC17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.3166247903553998</v>
       </c>
     </row>
   </sheetData>
@@ -22937,10 +22958,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C239F-F4C6-4E8B-B21A-4ED47E407EFE}">
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22950,1644 +22971,1824 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
+      <c r="B1" s="32">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="32">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="32">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="32">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="32">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="32">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="32">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="32">
         <v>9</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="32">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="32">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="32">
         <v>12</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="32">
         <v>13</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="32">
         <v>14</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="32">
         <v>15</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="32">
         <v>16</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="32">
         <v>17</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="32">
         <v>18</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="32">
         <v>19</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="32">
         <v>20</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="32">
         <v>21</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="32">
         <v>22</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="32">
         <v>23</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="32">
         <v>24</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="32">
         <v>25</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="32">
         <v>26</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="32">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="32" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="32" t="s">
         <v>407</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
+      <c r="B2" s="33">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33">
+        <v>0</v>
+      </c>
+      <c r="D2" s="33">
+        <v>0</v>
+      </c>
+      <c r="E2" s="33">
+        <v>0</v>
+      </c>
+      <c r="F2" s="33">
+        <v>0</v>
+      </c>
+      <c r="G2" s="33">
+        <v>0</v>
+      </c>
+      <c r="H2" s="33">
+        <v>0</v>
+      </c>
+      <c r="I2" s="33">
+        <v>0</v>
+      </c>
+      <c r="J2" s="33">
+        <v>0</v>
+      </c>
+      <c r="K2" s="33">
+        <v>0</v>
+      </c>
+      <c r="L2" s="33">
+        <v>0</v>
+      </c>
+      <c r="M2" s="33">
+        <v>0</v>
+      </c>
+      <c r="N2" s="33">
+        <v>1</v>
+      </c>
+      <c r="O2" s="33">
+        <v>1</v>
+      </c>
+      <c r="P2" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="33">
+        <v>0</v>
+      </c>
+      <c r="R2" s="33">
+        <v>0</v>
+      </c>
+      <c r="S2" s="33">
+        <v>0</v>
+      </c>
+      <c r="T2" s="33">
+        <v>0</v>
+      </c>
+      <c r="U2" s="33">
+        <v>0</v>
+      </c>
+      <c r="V2" s="33">
+        <v>0</v>
+      </c>
+      <c r="W2" s="33">
+        <v>0</v>
+      </c>
+      <c r="X2" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="33">
         <f>SUM(B2:AB2)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="32" t="s">
         <v>408</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC13" si="0">SUM(B3:AB3)</f>
-        <v>0</v>
+      <c r="B3" s="33">
+        <v>0</v>
+      </c>
+      <c r="C3" s="33">
+        <v>0</v>
+      </c>
+      <c r="D3" s="33">
+        <v>0</v>
+      </c>
+      <c r="E3" s="33">
+        <v>0</v>
+      </c>
+      <c r="F3" s="33">
+        <v>0</v>
+      </c>
+      <c r="G3" s="33">
+        <v>0</v>
+      </c>
+      <c r="H3" s="33">
+        <v>0</v>
+      </c>
+      <c r="I3" s="33">
+        <v>0</v>
+      </c>
+      <c r="J3" s="33">
+        <v>0</v>
+      </c>
+      <c r="K3" s="33">
+        <v>0</v>
+      </c>
+      <c r="L3" s="33">
+        <v>0</v>
+      </c>
+      <c r="M3" s="33">
+        <v>1</v>
+      </c>
+      <c r="N3" s="33">
+        <v>0</v>
+      </c>
+      <c r="O3" s="33">
+        <v>0</v>
+      </c>
+      <c r="P3" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="33">
+        <v>0</v>
+      </c>
+      <c r="R3" s="33">
+        <v>0</v>
+      </c>
+      <c r="S3" s="33">
+        <v>0</v>
+      </c>
+      <c r="T3" s="33">
+        <v>3</v>
+      </c>
+      <c r="U3" s="33">
+        <v>0</v>
+      </c>
+      <c r="V3" s="33">
+        <v>0</v>
+      </c>
+      <c r="W3" s="33">
+        <v>0</v>
+      </c>
+      <c r="X3" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="33">
+        <f t="shared" ref="AC3:AC9" si="0">SUM(B3:AB3)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
+      <c r="B4" s="33">
+        <v>0</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33">
+        <v>0</v>
+      </c>
+      <c r="E4" s="33">
+        <v>0</v>
+      </c>
+      <c r="F4" s="33">
+        <v>0</v>
+      </c>
+      <c r="G4" s="33">
+        <v>0</v>
+      </c>
+      <c r="H4" s="33">
+        <v>0</v>
+      </c>
+      <c r="I4" s="33">
+        <v>0</v>
+      </c>
+      <c r="J4" s="33">
+        <v>0</v>
+      </c>
+      <c r="K4" s="33">
+        <v>0</v>
+      </c>
+      <c r="L4" s="33">
+        <v>1</v>
+      </c>
+      <c r="M4" s="33">
+        <v>1</v>
+      </c>
+      <c r="N4" s="33">
+        <v>1</v>
+      </c>
+      <c r="O4" s="33">
+        <v>0</v>
+      </c>
+      <c r="P4" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="33">
+        <v>0</v>
+      </c>
+      <c r="R4" s="33">
+        <v>0</v>
+      </c>
+      <c r="S4" s="33">
+        <v>0</v>
+      </c>
+      <c r="T4" s="33">
+        <v>0</v>
+      </c>
+      <c r="U4" s="33">
+        <v>0</v>
+      </c>
+      <c r="V4" s="33">
+        <v>0</v>
+      </c>
+      <c r="W4" s="33">
+        <v>0</v>
+      </c>
+      <c r="X4" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
+      <c r="B5" s="33">
+        <v>0</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33">
+        <v>0</v>
+      </c>
+      <c r="E5" s="33">
+        <v>0</v>
+      </c>
+      <c r="F5" s="33">
+        <v>0</v>
+      </c>
+      <c r="G5" s="33">
+        <v>0</v>
+      </c>
+      <c r="H5" s="33">
+        <v>0</v>
+      </c>
+      <c r="I5" s="33">
+        <v>0</v>
+      </c>
+      <c r="J5" s="33">
+        <v>0</v>
+      </c>
+      <c r="K5" s="33">
+        <v>0</v>
+      </c>
+      <c r="L5" s="33">
+        <v>0</v>
+      </c>
+      <c r="M5" s="33">
+        <v>0</v>
+      </c>
+      <c r="N5" s="33">
+        <v>0</v>
+      </c>
+      <c r="O5" s="33">
+        <v>1</v>
+      </c>
+      <c r="P5" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="33">
+        <v>0</v>
+      </c>
+      <c r="R5" s="33">
+        <v>0</v>
+      </c>
+      <c r="S5" s="33">
+        <v>0</v>
+      </c>
+      <c r="T5" s="33">
+        <v>0</v>
+      </c>
+      <c r="U5" s="33">
+        <v>0</v>
+      </c>
+      <c r="V5" s="33">
+        <v>0</v>
+      </c>
+      <c r="W5" s="33">
+        <v>0</v>
+      </c>
+      <c r="X5" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
+      <c r="B6" s="33">
+        <v>0</v>
+      </c>
+      <c r="C6" s="33">
+        <v>0</v>
+      </c>
+      <c r="D6" s="33">
+        <v>0</v>
+      </c>
+      <c r="E6" s="33">
+        <v>0</v>
+      </c>
+      <c r="F6" s="33">
+        <v>0</v>
+      </c>
+      <c r="G6" s="33">
+        <v>0</v>
+      </c>
+      <c r="H6" s="33">
+        <v>0</v>
+      </c>
+      <c r="I6" s="33">
+        <v>0</v>
+      </c>
+      <c r="J6" s="33">
+        <v>0</v>
+      </c>
+      <c r="K6" s="33">
+        <v>0</v>
+      </c>
+      <c r="L6" s="33">
+        <v>0</v>
+      </c>
+      <c r="M6" s="33">
+        <v>1</v>
+      </c>
+      <c r="N6" s="33">
+        <v>1</v>
+      </c>
+      <c r="O6" s="33">
+        <v>0</v>
+      </c>
+      <c r="P6" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="33">
+        <v>0</v>
+      </c>
+      <c r="R6" s="33">
+        <v>0</v>
+      </c>
+      <c r="S6" s="33">
+        <v>0</v>
+      </c>
+      <c r="T6" s="33">
+        <v>0</v>
+      </c>
+      <c r="U6" s="33">
+        <v>0</v>
+      </c>
+      <c r="V6" s="33">
+        <v>0</v>
+      </c>
+      <c r="W6" s="33">
+        <v>0</v>
+      </c>
+      <c r="X6" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
+      <c r="B7" s="33">
+        <v>0</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0</v>
+      </c>
+      <c r="E7" s="33">
+        <v>0</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0</v>
+      </c>
+      <c r="G7" s="33">
+        <v>0</v>
+      </c>
+      <c r="H7" s="33">
+        <v>0</v>
+      </c>
+      <c r="I7" s="33">
+        <v>0</v>
+      </c>
+      <c r="J7" s="33">
+        <v>0</v>
+      </c>
+      <c r="K7" s="33">
+        <v>0</v>
+      </c>
+      <c r="L7" s="33">
+        <v>0</v>
+      </c>
+      <c r="M7" s="33">
+        <v>1</v>
+      </c>
+      <c r="N7" s="33">
+        <v>1</v>
+      </c>
+      <c r="O7" s="33">
+        <v>2</v>
+      </c>
+      <c r="P7" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="33">
+        <v>0</v>
+      </c>
+      <c r="R7" s="33">
+        <v>0</v>
+      </c>
+      <c r="S7" s="33">
+        <v>0</v>
+      </c>
+      <c r="T7" s="33">
+        <v>0</v>
+      </c>
+      <c r="U7" s="33">
+        <v>0</v>
+      </c>
+      <c r="V7" s="33">
+        <v>0</v>
+      </c>
+      <c r="W7" s="33">
+        <v>0</v>
+      </c>
+      <c r="X7" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="33">
+        <f>SUM(B7:AB7)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8" s="33">
+        <v>0</v>
+      </c>
+      <c r="C8" s="33">
+        <v>0</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0</v>
+      </c>
+      <c r="E8" s="33">
+        <v>0</v>
+      </c>
+      <c r="F8" s="33">
+        <v>0</v>
+      </c>
+      <c r="G8" s="33">
+        <v>0</v>
+      </c>
+      <c r="H8" s="33">
+        <v>0</v>
+      </c>
+      <c r="I8" s="33">
+        <v>0</v>
+      </c>
+      <c r="J8" s="33">
+        <v>0</v>
+      </c>
+      <c r="K8" s="33">
+        <v>0</v>
+      </c>
+      <c r="L8" s="33">
+        <v>0</v>
+      </c>
+      <c r="M8" s="33">
+        <v>0</v>
+      </c>
+      <c r="N8" s="33">
+        <v>1</v>
+      </c>
+      <c r="O8" s="33">
+        <v>2</v>
+      </c>
+      <c r="P8" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="33">
+        <v>0</v>
+      </c>
+      <c r="R8" s="33">
+        <v>1</v>
+      </c>
+      <c r="S8" s="33">
+        <v>0</v>
+      </c>
+      <c r="T8" s="33">
+        <v>0</v>
+      </c>
+      <c r="U8" s="33">
+        <v>0</v>
+      </c>
+      <c r="V8" s="33">
+        <v>0</v>
+      </c>
+      <c r="W8" s="33">
+        <v>0</v>
+      </c>
+      <c r="X8" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <f>SUM(B8:AB8)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="32" t="s">
         <v>414</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
+      <c r="B9" s="33">
+        <v>0</v>
+      </c>
+      <c r="C9" s="33">
+        <v>0</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0</v>
+      </c>
+      <c r="E9" s="33">
+        <v>0</v>
+      </c>
+      <c r="F9" s="33">
+        <v>0</v>
+      </c>
+      <c r="G9" s="33">
+        <v>0</v>
+      </c>
+      <c r="H9" s="33">
+        <v>0</v>
+      </c>
+      <c r="I9" s="33">
+        <v>0</v>
+      </c>
+      <c r="J9" s="33">
+        <v>0</v>
+      </c>
+      <c r="K9" s="33">
+        <v>0</v>
+      </c>
+      <c r="L9" s="33">
+        <v>0</v>
+      </c>
+      <c r="M9" s="33">
+        <v>0</v>
+      </c>
+      <c r="N9" s="33">
+        <v>1</v>
+      </c>
+      <c r="O9" s="33">
+        <v>0</v>
+      </c>
+      <c r="P9" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="33">
+        <v>0</v>
+      </c>
+      <c r="R9" s="33">
+        <v>0</v>
+      </c>
+      <c r="S9" s="33">
+        <v>0</v>
+      </c>
+      <c r="T9" s="33">
+        <v>0</v>
+      </c>
+      <c r="U9" s="33">
+        <v>0</v>
+      </c>
+      <c r="V9" s="33">
+        <v>0</v>
+      </c>
+      <c r="W9" s="33">
+        <v>0</v>
+      </c>
+      <c r="X9" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="32" t="s">
         <v>415</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B10" s="33">
+        <v>0</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0</v>
+      </c>
+      <c r="F10" s="33">
+        <v>0</v>
+      </c>
+      <c r="G10" s="33">
+        <v>0</v>
+      </c>
+      <c r="H10" s="33">
+        <v>0</v>
+      </c>
+      <c r="I10" s="33">
+        <v>0</v>
+      </c>
+      <c r="J10" s="33">
+        <v>0</v>
+      </c>
+      <c r="K10" s="33">
+        <v>0</v>
+      </c>
+      <c r="L10" s="33">
+        <v>0</v>
+      </c>
+      <c r="M10" s="33">
+        <v>0</v>
+      </c>
+      <c r="N10" s="33">
+        <v>3</v>
+      </c>
+      <c r="O10" s="33">
+        <v>1</v>
+      </c>
+      <c r="P10" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="33">
+        <v>0</v>
+      </c>
+      <c r="R10" s="33">
+        <v>0</v>
+      </c>
+      <c r="S10" s="33">
+        <v>0</v>
+      </c>
+      <c r="T10" s="33">
+        <v>0</v>
+      </c>
+      <c r="U10" s="33">
+        <v>0</v>
+      </c>
+      <c r="V10" s="33">
+        <v>0</v>
+      </c>
+      <c r="W10" s="33">
+        <v>0</v>
+      </c>
+      <c r="X10" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="33">
+        <f t="shared" ref="AC10:AC15" si="1">SUM(B10:AB10)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B11" s="33">
+        <v>0</v>
+      </c>
+      <c r="C11" s="33">
+        <v>0</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0</v>
+      </c>
+      <c r="E11" s="33">
+        <v>0</v>
+      </c>
+      <c r="F11" s="33">
+        <v>0</v>
+      </c>
+      <c r="G11" s="33">
+        <v>0</v>
+      </c>
+      <c r="H11" s="33">
+        <v>0</v>
+      </c>
+      <c r="I11" s="33">
+        <v>0</v>
+      </c>
+      <c r="J11" s="33">
+        <v>0</v>
+      </c>
+      <c r="K11" s="33">
+        <v>0</v>
+      </c>
+      <c r="L11" s="33">
+        <v>0</v>
+      </c>
+      <c r="M11" s="33">
+        <v>0</v>
+      </c>
+      <c r="N11" s="33">
+        <v>1</v>
+      </c>
+      <c r="O11" s="33">
+        <v>0</v>
+      </c>
+      <c r="P11" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="33">
+        <v>0</v>
+      </c>
+      <c r="R11" s="33">
+        <v>0</v>
+      </c>
+      <c r="S11" s="33">
+        <v>0</v>
+      </c>
+      <c r="T11" s="33">
+        <v>0</v>
+      </c>
+      <c r="U11" s="33">
+        <v>0</v>
+      </c>
+      <c r="V11" s="33">
+        <v>0</v>
+      </c>
+      <c r="W11" s="33">
+        <v>0</v>
+      </c>
+      <c r="X11" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B12" s="33">
+        <v>0</v>
+      </c>
+      <c r="C12" s="33">
+        <v>0</v>
+      </c>
+      <c r="D12" s="33">
+        <v>0</v>
+      </c>
+      <c r="E12" s="33">
+        <v>0</v>
+      </c>
+      <c r="F12" s="33">
+        <v>0</v>
+      </c>
+      <c r="G12" s="33">
+        <v>0</v>
+      </c>
+      <c r="H12" s="33">
+        <v>0</v>
+      </c>
+      <c r="I12" s="33">
+        <v>0</v>
+      </c>
+      <c r="J12" s="33">
+        <v>0</v>
+      </c>
+      <c r="K12" s="33">
+        <v>1</v>
+      </c>
+      <c r="L12" s="33">
+        <v>1</v>
+      </c>
+      <c r="M12" s="33">
+        <v>1</v>
+      </c>
+      <c r="N12" s="33">
+        <v>1</v>
+      </c>
+      <c r="O12" s="33">
+        <v>1</v>
+      </c>
+      <c r="P12" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="33">
+        <v>1</v>
+      </c>
+      <c r="R12" s="33">
+        <v>0</v>
+      </c>
+      <c r="S12" s="33">
+        <v>0</v>
+      </c>
+      <c r="T12" s="33">
+        <v>0</v>
+      </c>
+      <c r="U12" s="33">
+        <v>0</v>
+      </c>
+      <c r="V12" s="33">
+        <v>0</v>
+      </c>
+      <c r="W12" s="33">
+        <v>0</v>
+      </c>
+      <c r="X12" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="33">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="32" t="s">
         <v>418</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B13" s="33">
+        <v>0</v>
+      </c>
+      <c r="C13" s="33">
+        <v>0</v>
+      </c>
+      <c r="D13" s="33">
+        <v>0</v>
+      </c>
+      <c r="E13" s="33">
+        <v>0</v>
+      </c>
+      <c r="F13" s="33">
+        <v>0</v>
+      </c>
+      <c r="G13" s="33">
+        <v>0</v>
+      </c>
+      <c r="H13" s="33">
+        <v>0</v>
+      </c>
+      <c r="I13" s="33">
+        <v>0</v>
+      </c>
+      <c r="J13" s="33">
+        <v>0</v>
+      </c>
+      <c r="K13" s="33">
+        <v>0</v>
+      </c>
+      <c r="L13" s="33">
+        <v>0</v>
+      </c>
+      <c r="M13" s="33">
+        <v>1</v>
+      </c>
+      <c r="N13" s="33">
+        <v>1</v>
+      </c>
+      <c r="O13" s="33">
+        <v>1</v>
+      </c>
+      <c r="P13" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="33">
+        <v>0</v>
+      </c>
+      <c r="R13" s="33">
+        <v>1</v>
+      </c>
+      <c r="S13" s="33">
+        <v>1</v>
+      </c>
+      <c r="T13" s="33">
+        <v>0</v>
+      </c>
+      <c r="U13" s="33">
+        <v>0</v>
+      </c>
+      <c r="V13" s="33">
+        <v>0</v>
+      </c>
+      <c r="W13" s="33">
+        <v>0</v>
+      </c>
+      <c r="X13" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="33">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="33">
+        <v>0</v>
+      </c>
+      <c r="C14" s="33">
+        <v>0</v>
+      </c>
+      <c r="D14" s="33">
+        <v>0</v>
+      </c>
+      <c r="E14" s="33">
+        <v>0</v>
+      </c>
+      <c r="F14" s="33">
+        <v>0</v>
+      </c>
+      <c r="G14" s="33">
+        <v>0</v>
+      </c>
+      <c r="H14" s="33">
+        <v>0</v>
+      </c>
+      <c r="I14" s="33">
+        <v>0</v>
+      </c>
+      <c r="J14" s="33">
+        <v>0</v>
+      </c>
+      <c r="K14" s="33">
+        <v>0</v>
+      </c>
+      <c r="L14" s="33">
+        <v>0</v>
+      </c>
+      <c r="M14" s="33">
+        <v>0</v>
+      </c>
+      <c r="N14" s="33">
+        <v>2</v>
+      </c>
+      <c r="O14" s="33">
+        <v>2</v>
+      </c>
+      <c r="P14" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="33">
+        <v>0</v>
+      </c>
+      <c r="R14" s="33">
+        <v>0</v>
+      </c>
+      <c r="S14" s="33">
+        <v>0</v>
+      </c>
+      <c r="T14" s="33">
+        <v>0</v>
+      </c>
+      <c r="U14" s="33">
+        <v>0</v>
+      </c>
+      <c r="V14" s="33">
+        <v>0</v>
+      </c>
+      <c r="W14" s="33">
+        <v>0</v>
+      </c>
+      <c r="X14" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="33">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="B15" s="33">
+        <v>0</v>
+      </c>
+      <c r="C15" s="33">
+        <v>0</v>
+      </c>
+      <c r="D15" s="33">
+        <v>0</v>
+      </c>
+      <c r="E15" s="33">
+        <v>0</v>
+      </c>
+      <c r="F15" s="33">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0</v>
+      </c>
+      <c r="H15" s="33">
+        <v>0</v>
+      </c>
+      <c r="I15" s="33">
+        <v>0</v>
+      </c>
+      <c r="J15" s="33">
+        <v>0</v>
+      </c>
+      <c r="K15" s="33">
+        <v>0</v>
+      </c>
+      <c r="L15" s="33">
+        <v>0</v>
+      </c>
+      <c r="M15" s="33">
+        <v>0</v>
+      </c>
+      <c r="N15" s="33">
+        <v>1</v>
+      </c>
+      <c r="O15" s="33">
+        <v>1</v>
+      </c>
+      <c r="P15" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="33">
+        <v>1</v>
+      </c>
+      <c r="R15" s="33">
+        <v>0</v>
+      </c>
+      <c r="S15" s="33">
+        <v>0</v>
+      </c>
+      <c r="T15" s="33">
+        <v>0</v>
+      </c>
+      <c r="U15" s="33">
+        <v>0</v>
+      </c>
+      <c r="V15" s="33">
+        <v>0</v>
+      </c>
+      <c r="W15" s="33">
+        <v>0</v>
+      </c>
+      <c r="X15" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="33">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="33">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="B14" s="6">
-        <f t="shared" ref="B14:AC14" si="1">AVERAGE(B2:B13)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B16" s="34">
+        <f t="shared" ref="B16:AC16" si="2">AVERAGE(B2:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="34">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="M16" s="34">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="34">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="O16" s="34">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="P16" s="34">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="34">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="S16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="34">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="U16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="34">
+        <f t="shared" si="2"/>
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="B15" s="1">
-        <f t="shared" ref="B15:AC15" si="2">MEDIAN(B2:B13)</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B17" s="32">
+        <f t="shared" ref="B17:AC17" si="3">MEDIAN(B2:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="32">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="N17" s="32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="32">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="P17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="32">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="B16" s="1">
-        <f t="shared" ref="B16:AC16" si="3">_xlfn.MODE.SNGL(B2:B13)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B18" s="32">
+        <f t="shared" ref="B18:AC18" si="4">_xlfn.MODE.SNGL(B2:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="32">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="32">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="B17">
-        <f t="shared" ref="B17:AC17" si="4">_xlfn.STDEV.P(B2:B13)</f>
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="B19" s="33">
+        <f t="shared" ref="B19:AC19" si="5">_xlfn.STDEV.P(B2:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="33">
+        <f t="shared" si="5"/>
+        <v>0.33071891388307384</v>
+      </c>
+      <c r="M19" s="33">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="N19" s="33">
+        <f t="shared" si="5"/>
+        <v>0.4330127018922193</v>
+      </c>
+      <c r="O19" s="33">
+        <f t="shared" si="5"/>
+        <v>0.82915619758884995</v>
+      </c>
+      <c r="P19" s="33">
+        <f t="shared" si="5"/>
+        <v>0.4330127018922193</v>
+      </c>
+      <c r="Q19" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="33">
+        <f t="shared" si="5"/>
+        <v>0.33071891388307384</v>
+      </c>
+      <c r="S19" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="33">
+        <f t="shared" si="5"/>
+        <v>0.99215674164922152</v>
+      </c>
+      <c r="U19" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="33">
+        <f t="shared" si="5"/>
+        <v>1.3635890143294642</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:AB13">
+  <conditionalFormatting sqref="B2:AB15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -24597,7 +24798,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:AC16">
+  <conditionalFormatting sqref="B16:AC18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -24607,7 +24808,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC13">
+  <conditionalFormatting sqref="AC2:AC15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -24625,7 +24826,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B555D4-3688-4D7F-B510-ECD548363AC7}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
